--- a/results/impute/breast.xlsx
+++ b/results/impute/breast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36E01C-779E-EA47-A064-15030EC669A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9A8E5-3AA0-F644-9B51-AD20EFD085A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="9160" windowWidth="19240" windowHeight="9320" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,14 +142,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,14 +467,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -507,413 +510,413 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.104186872842217</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.14758515294871799</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.10085655737219</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>7.5334636684867007E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>8.1453429832824303E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.15285711256578099</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>7.4385838045343794E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.13313673519704899</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.12753840578527401</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.13331248000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>5.42321981143127E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.25572942530347398</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.20665942824004399</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.18856315748510599</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.15614416489496899</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.22007466842875101</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.22236722027121</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.19840912720683301</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.19854666328763901</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.193811019002809</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.28242974999999998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>0.13386531416553199</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.173444173609626</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.27033871467728798</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>7.2420949473076299E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>5.7350752364635799E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.118887745275221</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.26488527919240201</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.116536976428341</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.134790195433757</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.14266096414823301</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.13331256999999999</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>0.12027028990508599</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.33386837655926599</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.37163659375504099</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.16935739374002301</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.180222856620254</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.27444866148382902</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.37523380117553701</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.27574070133640299</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.24245413346741401</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.24754658874434399</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.28243023</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.24078757537280299</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.11816145175592099</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.109800276509205</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>5.24095528264924E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>5.6260267492226103E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>8.8149973526967698E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.104654753635693</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>7.6003494848996406E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.104371759076567</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>9.1210176460809603E-2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.13331245</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>7.5196483638269696E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.282754428863704</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.158515658795335</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.118618619772484</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="3">
+        <v>0.12861861977248401</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.13233743880367799</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.23081271336269699</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.15668829302929799</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.21483172041644499</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.15596051258666099</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.14049760919944901</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.2824295</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>0.120904404578419</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.112536800220829</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.14552760302184001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.3792220136689201E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.1436505984088802E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.101060111350113</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.15661011370831099</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9.1757523798824903E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.8045340697039903E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.13271597940670801</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.13331245</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3.9720161364153003E-2</v>
+      <c r="C8" s="3">
+        <v>0.10878810343793099</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.15890083630568499</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.108279128310556</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.3746144661117997E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.8591644424819399E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.15671528049238201</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.3432133946578599E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.153689923679518</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.137351112622417</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.1333125</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6.0450784438909097E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.26155863557815301</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.19758909873555</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.11844863789448901</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.118264662346898</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.23880517498668899</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.21888671127022699</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.23043138881835001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.14538412991035801</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.192347945407252</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.2824295</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.108179277922009</v>
+      <c r="C9" s="3">
+        <v>0.26192270515301902</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.203902827664076</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.18876941622858401</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.171812903867053</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.22446094667510999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.212249779582242</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.20357918107759901</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.214323179897185</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.189167599049473</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.28243000000000001</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.143650383370341</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.10878810343793099</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.15890083630568499</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.108279128310556</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9.3746144661117997E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8.8591644424819399E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.15671528049238201</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8.3432133946578599E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.153689923679518</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.137351112622417</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.1333125</v>
-      </c>
-      <c r="M10" s="2">
-        <v>6.0450784438909097E-2</v>
+      <c r="C10" s="3">
+        <v>0.112536800220829</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14552760302184001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.3792220136689201E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.1436505984088802E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.101060111350113</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.15661011370831099</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9.1757523798824903E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7.8045340697039903E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.13271597940670801</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.13331245</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3.9720161364153003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.26192270515301902</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.203902827664076</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.18876941622858401</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.171812903867053</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.22446094667510999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.212249779582242</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.20357918107759901</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.214323179897185</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.189167599049473</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.28243000000000001</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.143650383370341</v>
+      <c r="C11" s="3">
+        <v>0.26155863557815301</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.19758909873555</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.11844863789448901</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.118264662346898</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.23880517498668899</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.21888671127022699</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.23043138881835001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.14538412991035801</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.192347945407252</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.2824295</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.108179277922009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
